--- a/public/files/template/inventory/kibinventaris.xlsx
+++ b/public/files/template/inventory/kibinventaris.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Buku Invetaris</t>
   </si>
@@ -141,6 +141,27 @@
   </si>
   <si>
     <t>[b.kd_kab]</t>
+  </si>
+  <si>
+    <t>[a.pilihan_asal]</t>
+  </si>
+  <si>
+    <t>[a.keterangan_pengadaan]</t>
+  </si>
+  <si>
+    <t>[a.merk]</t>
+  </si>
+  <si>
+    <t>[a.nobukti]</t>
+  </si>
+  <si>
+    <t>[a.bahan]</t>
+  </si>
+  <si>
+    <t>[a.ukuran]</t>
+  </si>
+  <si>
+    <t>[a.satuan]</t>
   </si>
 </sst>
 </file>
@@ -237,10 +258,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,26 +626,26 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="63">
@@ -722,7 +743,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -734,15 +755,27 @@
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="L15" s="6" t="s">
         <v>36</v>
       </c>
@@ -752,7 +785,9 @@
       <c r="N15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/public/files/template/inventory/kibinventaris.xlsx
+++ b/public/files/template/inventory/kibinventaris.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
@@ -167,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -206,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,20 +232,69 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,10 +302,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -324,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,174 +685,175 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="8" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="63">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>6</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>7</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>8</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>9</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>10</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>11</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>12</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>13</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <v>14</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="5" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D12:F12"/>
+  <mergeCells count="4">
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="O12:O13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/files/template/inventory/kibinventaris.xlsx
+++ b/public/files/template/inventory/kibinventaris.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\epuskesmasgarut\public\files\template\inventory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
@@ -162,7 +167,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -302,6 +307,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -318,9 +326,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,7 +600,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,27 +690,27 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="6" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="10" t="s">
+      <c r="N12" s="7"/>
+      <c r="O12" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -752,7 +757,7 @@
       <c r="N13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="11"/>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5">
@@ -802,7 +807,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
